--- a/DroneDock.UnitTests/IO Files/Input_Coordinates_Only_For_Fields.xlsx
+++ b/DroneDock.UnitTests/IO Files/Input_Coordinates_Only_For_Fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\source\repos\DroneDock.UnitTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894268D7-28B3-4FF2-BEAC-BC6BBB4EAA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DD97DE-C316-4CC7-B055-8DDE6E8E5240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>49.15868902252248, 9.111073073485683</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Modellregion</t>
-  </si>
-  <si>
     <t>49.1582580129513, 9.113612777241652</t>
   </si>
   <si>
@@ -129,25 +126,13 @@
     <t>49.148674928934085, 9.141082959356808</t>
   </si>
   <si>
-    <t xml:space="preserve">Referenz Ost, Himmelreich ZR </t>
-  </si>
-  <si>
     <t>49.149159148901845, 9.144559102222855</t>
   </si>
   <si>
-    <t>Referenz Ost, Himmelreich RM</t>
-  </si>
-  <si>
     <t>49.15870423514579, 9.083886758444457</t>
   </si>
   <si>
-    <t>Referenz West, ROT GB</t>
-  </si>
-  <si>
     <t>49.157439095330254, 9.085973027394145</t>
-  </si>
-  <si>
-    <t>Referenz West, ROTTEICH GB</t>
   </si>
 </sst>
 </file>
@@ -491,402 +476,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B35" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
